--- a/510k/数值.xlsx
+++ b/510k/数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18285" windowHeight="8700"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,15 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>段位</t>
   </si>
   <si>
-    <t>平均胜率</t>
-  </si>
-  <si>
-    <t>晋级轮数</t>
+    <t>平均胜率（万分之几）</t>
+  </si>
+  <si>
+    <t>最低晋级轮数</t>
   </si>
   <si>
     <t>晋级分数</t>
@@ -147,10 +147,16 @@
     <t>每对</t>
   </si>
   <si>
+    <t>最低150</t>
+  </si>
+  <si>
     <t>顺子</t>
   </si>
   <si>
     <t>每张</t>
+  </si>
+  <si>
+    <t>最低60</t>
   </si>
   <si>
     <t>炸弹</t>
@@ -173,17 +179,122 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,6 +306,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -204,25 +323,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,110 +336,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -347,61 +346,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,91 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,17 +540,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,15 +571,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,7 +609,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,164 +637,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,14 +1144,14 @@
   <sheetPr/>
   <dimension ref="B4:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
@@ -1626,7 +1625,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="2:5">
       <c r="B44" t="s">
         <v>41</v>
       </c>
@@ -1636,32 +1635,41 @@
       <c r="D44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="2:4">
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
       <c r="B45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45">
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
+        <v>45</v>
+      </c>
+      <c r="E45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
       <c r="B46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C46">
         <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C47">
         <v>300</v>
@@ -1672,7 +1680,7 @@
     </row>
     <row r="48" spans="2:4">
       <c r="B48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C48">
         <v>400</v>
@@ -1683,10 +1691,10 @@
     </row>
     <row r="49" spans="2:4">
       <c r="B49" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D49" t="s">
         <v>39</v>

--- a/510k/数值.xlsx
+++ b/510k/数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28215" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>段位</t>
   </si>
   <si>
-    <t>平均胜率（万分之几）</t>
+    <t>胜率比</t>
+  </si>
+  <si>
+    <t>扣分比</t>
   </si>
   <si>
     <t>最低晋级轮数</t>
@@ -114,22 +117,25 @@
     <t>史诗角色</t>
   </si>
   <si>
-    <t>属性比</t>
+    <t>基础属性加成</t>
   </si>
   <si>
     <t>等级</t>
   </si>
   <si>
-    <t>最大属性</t>
-  </si>
-  <si>
-    <t>消耗比</t>
+    <t>最大属性加成</t>
+  </si>
+  <si>
+    <t>消耗加成</t>
   </si>
   <si>
     <t>每轮的平均分</t>
   </si>
   <si>
-    <t>排位分公式</t>
+    <t>记录所有初级角色的得分计算平均分</t>
+  </si>
+  <si>
+    <t>角色属性</t>
   </si>
   <si>
     <t>压制</t>
@@ -144,34 +150,19 @@
     <t>连对</t>
   </si>
   <si>
-    <t>每对</t>
-  </si>
-  <si>
-    <t>最低150</t>
-  </si>
-  <si>
     <t>顺子</t>
   </si>
   <si>
-    <t>每张</t>
-  </si>
-  <si>
-    <t>最低60</t>
-  </si>
-  <si>
     <t>炸弹</t>
   </si>
   <si>
-    <t>510K</t>
-  </si>
-  <si>
-    <t>同花510K</t>
-  </si>
-  <si>
-    <t>王炸</t>
-  </si>
-  <si>
-    <t>500~600</t>
+    <t>竞技分计算公式</t>
+  </si>
+  <si>
+    <t>当前得分+连胜加成+道具加成</t>
+  </si>
+  <si>
+    <t>扣除 平均分*扣分比</t>
   </si>
 </sst>
 </file>
@@ -179,8 +170,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -193,8 +184,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,53 +299,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,11 +314,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,59 +327,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -346,187 +337,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,11 +533,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,22 +559,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,32 +597,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,10 +636,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,141 +648,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1142,22 +1139,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:E49"/>
+  <dimension ref="B4:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1170,473 +1167,604 @@
       <c r="E4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>4532</v>
-      </c>
-      <c r="D5">
+        <v>48.22</v>
+      </c>
+      <c r="D5" s="2">
+        <f>(100-(50-C5)*2)/100</f>
+        <v>0.9644</v>
+      </c>
+      <c r="E5">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="F5">
+        <f>B$39*E5</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>4564</v>
-      </c>
-      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>48.44</v>
+      </c>
+      <c r="D6" s="2">
+        <f>(100-(50-C6)*2)/100</f>
+        <v>0.9688</v>
+      </c>
+      <c r="E6">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="F6">
+        <f>B$39*E6</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>4596</v>
-      </c>
-      <c r="D7">
+        <v>48.66</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:D29" si="0">(100-(50-C7)*2)/100</f>
+        <v>0.9732</v>
+      </c>
+      <c r="E7">
         <v>10</v>
       </c>
-      <c r="E7">
+      <c r="F7">
+        <f t="shared" ref="F7:F29" si="1">B$39*E7</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>4628</v>
-      </c>
-      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>48.88</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9776</v>
+      </c>
+      <c r="E8">
         <v>10</v>
       </c>
-      <c r="E8">
+      <c r="F8">
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>4660</v>
-      </c>
-      <c r="D9">
+        <v>49.1</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.982</v>
+      </c>
+      <c r="E9">
         <v>10</v>
       </c>
-      <c r="E9">
+      <c r="F9">
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>4692</v>
-      </c>
-      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>49.32</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9864</v>
+      </c>
+      <c r="E10">
         <v>15</v>
       </c>
-      <c r="E10">
+      <c r="F10">
+        <f>B$39*E10</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
-        <v>4724</v>
-      </c>
-      <c r="D11">
+        <v>49.54</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9908</v>
+      </c>
+      <c r="E11">
         <v>15</v>
       </c>
-      <c r="E11">
+      <c r="F11">
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>4756</v>
-      </c>
-      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>49.76</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9952</v>
+      </c>
+      <c r="E12">
         <v>15</v>
       </c>
-      <c r="E12">
+      <c r="F12">
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
-        <v>4788</v>
-      </c>
-      <c r="D13">
+        <v>49.98</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9996</v>
+      </c>
+      <c r="E13">
         <v>15</v>
       </c>
-      <c r="E13">
+      <c r="F13">
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>4820</v>
-      </c>
-      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
+        <v>50.2</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.004</v>
+      </c>
+      <c r="E14">
         <v>15</v>
       </c>
-      <c r="E14">
+      <c r="F14">
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:6">
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
-        <v>4852</v>
-      </c>
-      <c r="D15">
+        <v>50.42</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0084</v>
+      </c>
+      <c r="E15">
         <v>20</v>
       </c>
-      <c r="E15">
+      <c r="F15">
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:6">
       <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>4884</v>
-      </c>
-      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <v>50.64</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0128</v>
+      </c>
+      <c r="E16">
         <v>20</v>
       </c>
-      <c r="E16">
+      <c r="F16">
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>4916</v>
-      </c>
-      <c r="D17">
+        <v>50.86</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0172</v>
+      </c>
+      <c r="E17">
         <v>20</v>
       </c>
-      <c r="E17">
+      <c r="F17">
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>4948</v>
-      </c>
-      <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>51.08</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0216</v>
+      </c>
+      <c r="E18">
         <v>20</v>
       </c>
-      <c r="E18">
+      <c r="F18">
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
-        <v>4980</v>
-      </c>
-      <c r="D19">
+        <v>51.3</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>1.026</v>
+      </c>
+      <c r="E19">
         <v>20</v>
       </c>
-      <c r="E19">
+      <c r="F19">
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>5012</v>
-      </c>
-      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>51.52</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0304</v>
+      </c>
+      <c r="E20">
         <v>25</v>
       </c>
-      <c r="E20">
+      <c r="F20">
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
-        <v>5044</v>
-      </c>
-      <c r="D21">
+        <v>51.74</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0348</v>
+      </c>
+      <c r="E21">
         <v>25</v>
       </c>
-      <c r="E21">
+      <c r="F21">
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>5076</v>
-      </c>
-      <c r="D22">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1">
+        <v>51.96</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0392</v>
+      </c>
+      <c r="E22">
         <v>25</v>
       </c>
-      <c r="E22">
+      <c r="F22">
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
-        <v>5108</v>
-      </c>
-      <c r="D23">
+        <v>52.18</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0436</v>
+      </c>
+      <c r="E23">
         <v>25</v>
       </c>
-      <c r="E23">
+      <c r="F23">
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>5140</v>
-      </c>
-      <c r="D24">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1">
+        <v>52.4</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>1.048</v>
+      </c>
+      <c r="E24">
         <v>25</v>
       </c>
-      <c r="E24">
+      <c r="F24">
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
-        <v>5172</v>
-      </c>
-      <c r="D25">
+        <v>52.62</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0524</v>
+      </c>
+      <c r="E25">
         <v>30</v>
       </c>
-      <c r="E25">
+      <c r="F25">
+        <f t="shared" si="1"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:6">
       <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>5204</v>
-      </c>
-      <c r="D26">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1">
+        <v>52.84</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0568</v>
+      </c>
+      <c r="E26">
         <v>30</v>
       </c>
-      <c r="E26">
+      <c r="F26">
+        <f t="shared" si="1"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:6">
       <c r="B27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
-        <v>5236</v>
-      </c>
-      <c r="D27">
+        <v>53.06</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0612</v>
+      </c>
+      <c r="E27">
         <v>30</v>
       </c>
-      <c r="E27">
+      <c r="F27">
+        <f t="shared" si="1"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <v>5268</v>
-      </c>
-      <c r="D28">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1">
+        <v>53.28</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0656</v>
+      </c>
+      <c r="E28">
         <v>30</v>
       </c>
-      <c r="E28">
+      <c r="F28">
+        <f t="shared" si="1"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:6">
       <c r="B29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
-        <v>5300</v>
-      </c>
-      <c r="D29">
+        <v>53.5</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>1.07</v>
+      </c>
+      <c r="E29">
         <v>30</v>
       </c>
-      <c r="E29">
+      <c r="F29">
+        <f t="shared" si="1"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="32" spans="3:5">
+    <row r="32" spans="3:6">
       <c r="C32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" t="s">
         <v>30</v>
       </c>
       <c r="E32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="2:5">
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33">
-        <v>100</v>
-      </c>
-      <c r="D33">
-        <v>120</v>
-      </c>
-      <c r="E33">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
+        <v>33</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34">
         <v>40</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>50</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="2:6">
       <c r="B35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35">
-        <v>130</v>
-      </c>
-      <c r="D35">
-        <v>150</v>
-      </c>
-      <c r="E35">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
+        <v>35</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36">
-        <v>100</v>
-      </c>
-      <c r="D36">
-        <v>120</v>
-      </c>
-      <c r="E36">
-        <v>140</v>
+        <v>36</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
       <c r="B39">
         <v>1000</v>
       </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
       <c r="B42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C42">
-        <v>500</v>
-      </c>
-      <c r="D42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
+        <v>400</v>
+      </c>
+      <c r="E42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
       <c r="B43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C43">
         <v>500</v>
       </c>
-      <c r="D43" t="s">
-        <v>39</v>
+      <c r="E43" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>200</v>
+      </c>
+      <c r="E44" t="s">
         <v>41</v>
-      </c>
-      <c r="C44">
-        <v>50</v>
-      </c>
-      <c r="D44" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="45" spans="2:5">
@@ -1644,60 +1772,36 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>20</v>
-      </c>
-      <c r="D45" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>1000</v>
+      </c>
+      <c r="E46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
         <v>47</v>
       </c>
-      <c r="C46">
-        <v>50</v>
-      </c>
-      <c r="D46" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" t="s">
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
         <v>48</v>
-      </c>
-      <c r="C47">
-        <v>300</v>
-      </c>
-      <c r="D47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48">
-        <v>400</v>
-      </c>
-      <c r="D48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/510k/数值.xlsx
+++ b/510k/数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28215" windowHeight="11490"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>段位</t>
   </si>
@@ -27,12 +27,15 @@
     <t>扣分比</t>
   </si>
   <si>
-    <t>最低晋级轮数</t>
+    <t>晋级轮数</t>
   </si>
   <si>
     <t>晋级分数</t>
   </si>
   <si>
+    <t>基准分</t>
+  </si>
+  <si>
     <t>白银5</t>
   </si>
   <si>
@@ -120,30 +123,51 @@
     <t>基础属性加成</t>
   </si>
   <si>
+    <t>最大属性加成</t>
+  </si>
+  <si>
     <t>等级</t>
   </si>
   <si>
-    <t>最大属性加成</t>
-  </si>
-  <si>
     <t>消耗加成</t>
   </si>
   <si>
     <t>每轮的平均分</t>
   </si>
   <si>
-    <t>记录所有初级角色的得分计算平均分</t>
-  </si>
-  <si>
     <t>角色属性</t>
   </si>
   <si>
+    <t>初级角色属性</t>
+  </si>
+  <si>
+    <t>初级角色最高属性</t>
+  </si>
+  <si>
+    <t>初级角色每级加成</t>
+  </si>
+  <si>
+    <t>中级角色属性</t>
+  </si>
+  <si>
+    <t>中级角色最高属性</t>
+  </si>
+  <si>
+    <t>中级角色每级加成</t>
+  </si>
+  <si>
+    <t>高级角色属性</t>
+  </si>
+  <si>
+    <t>高级角色最高属性</t>
+  </si>
+  <si>
+    <t>高级角色每级加成</t>
+  </si>
+  <si>
     <t>压制</t>
   </si>
   <si>
-    <t>固定分数</t>
-  </si>
-  <si>
     <t>加倍</t>
   </si>
   <si>
@@ -157,12 +181,6 @@
   </si>
   <si>
     <t>竞技分计算公式</t>
-  </si>
-  <si>
-    <t>当前得分+连胜加成+道具加成</t>
-  </si>
-  <si>
-    <t>扣除 平均分*扣分比</t>
   </si>
 </sst>
 </file>
@@ -184,6 +202,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -192,6 +217,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -200,8 +262,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -216,52 +294,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,15 +318,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,22 +332,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -337,19 +355,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,163 +511,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,30 +554,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,19 +591,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,6 +626,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -636,10 +654,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,133 +666,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1139,22 +1157,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:F50"/>
+  <dimension ref="B4:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
     <col min="6" max="6" width="23.5" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="21.25" customWidth="1"/>
+    <col min="9" max="9" width="23.375" customWidth="1"/>
+    <col min="10" max="10" width="17.125" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:7">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1170,638 +1193,549 @@
       <c r="F4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>48.22</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2">
-        <f>(100-(50-C5)*2)/100</f>
-        <v>0.9644</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="F5">
-        <f>B$39*E5</f>
-        <v>10000</v>
+        <v>200</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>48.44</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2">
-        <f>(100-(50-C6)*2)/100</f>
-        <v>0.9688</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="F6">
-        <f>B$39*E6</f>
-        <v>10000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
-        <v>48.66</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:D29" si="0">(100-(50-C7)*2)/100</f>
-        <v>0.9732</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F29" si="1">B$39*E7</f>
-        <v>10000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>48.88</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.9776</v>
+        <v>100</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>49.1</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.982</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>49.32</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.9864</v>
+        <v>100</v>
       </c>
       <c r="E10">
         <v>15</v>
       </c>
       <c r="F10">
-        <f>B$39*E10</f>
-        <v>15000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
-        <v>49.54</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.9908</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>15</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
-        <v>49.76</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.9952</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <v>15</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
-        <v>49.98</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.9996</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>15</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>1.004</v>
+        <v>100</v>
       </c>
       <c r="E14">
         <v>15</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>50.42</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0084</v>
+        <v>100</v>
       </c>
       <c r="E15">
         <v>20</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>50.64</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0128</v>
+        <v>100</v>
       </c>
       <c r="E16">
         <v>20</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>50.86</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0172</v>
+        <v>100</v>
       </c>
       <c r="E17">
         <v>20</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
-        <v>51.08</v>
+        <v>50</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0216</v>
+        <v>100</v>
       </c>
       <c r="E18">
         <v>20</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
-        <v>51.3</v>
+        <v>50</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>1.026</v>
+        <v>100</v>
       </c>
       <c r="E19">
         <v>20</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1">
-        <v>51.52</v>
+        <v>50</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0304</v>
+        <v>100</v>
       </c>
       <c r="E20">
         <v>25</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
-        <v>25000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1">
-        <v>51.74</v>
+        <v>50</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0348</v>
+        <v>100</v>
       </c>
       <c r="E21">
         <v>25</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
-        <v>25000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
-        <v>51.96</v>
+        <v>50</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0392</v>
+        <v>100</v>
       </c>
       <c r="E22">
         <v>25</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
-        <v>25000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1">
-        <v>52.18</v>
+        <v>50</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0436</v>
+        <v>100</v>
       </c>
       <c r="E23">
         <v>25</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
-        <v>25000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1">
-        <v>52.4</v>
+        <v>50</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>1.048</v>
+        <v>100</v>
       </c>
       <c r="E24">
         <v>25</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
-        <v>25000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1">
-        <v>52.62</v>
+        <v>50</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0524</v>
+        <v>100</v>
       </c>
       <c r="E25">
         <v>30</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1">
-        <v>52.84</v>
+        <v>50</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0568</v>
+        <v>100</v>
       </c>
       <c r="E26">
         <v>30</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1">
-        <v>53.06</v>
+        <v>50</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0612</v>
+        <v>100</v>
       </c>
       <c r="E27">
         <v>30</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1">
-        <v>53.28</v>
+        <v>50</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0656</v>
+        <v>100</v>
       </c>
       <c r="E28">
         <v>30</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1">
-        <v>53.5</v>
+        <v>50</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="0"/>
-        <v>1.07</v>
+        <v>100</v>
       </c>
       <c r="E29">
         <v>30</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5">
       <c r="C32" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:5">
       <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34">
-        <v>40</v>
-      </c>
-      <c r="E34">
-        <v>50</v>
-      </c>
-      <c r="F34">
-        <v>60</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0.06</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39">
-        <v>1000</v>
-      </c>
-      <c r="C39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:11">
       <c r="B41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="2:5">
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42">
-        <v>400</v>
-      </c>
-      <c r="E42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43">
-        <v>500</v>
-      </c>
-      <c r="E43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44">
-        <v>200</v>
-      </c>
-      <c r="E44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45">
-        <v>200</v>
-      </c>
-      <c r="E45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46">
-        <v>1000</v>
-      </c>
-      <c r="E46" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
